--- a/energy_data/xlsx_data/elasticity_data.xlsx
+++ b/energy_data/xlsx_data/elasticity_data.xlsx
@@ -37,9 +37,6 @@
     <t>LPG</t>
   </si>
   <si>
-    <t>N_Gas</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +432,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E26" si="0">IF(D3=C3,"demand_own_price","demand_cross_price")</f>
@@ -506,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -548,13 +548,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -569,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -590,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -611,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -632,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -653,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -674,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -716,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -737,13 +737,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -800,13 +800,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -821,13 +821,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -863,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -884,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -926,13 +926,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -947,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -968,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -998,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,16 +1012,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>0.05</v>
@@ -1032,16 +1032,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>7.0000000000000007E-2</v>
@@ -1052,22 +1052,22 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,16 +1075,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
       </c>
       <c r="F31">
         <v>0.28999999999999998</v>
